--- a/Tabelb.xlsx
+++ b/Tabelb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1997c\Desktop\auto_zmei_ukus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python_projects\lenakiller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C36146D-B6B7-440A-97DA-F2E9E783C729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6E77C-C8E0-4426-9F54-A9D4737180C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1515" windowWidth="28800" windowHeight="15435" xr2:uid="{61DEC57F-F9FE-454D-8596-37ECEBD6D373}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{61DEC57F-F9FE-454D-8596-37ECEBD6D373}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,18 +110,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,37 +462,40 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>45398</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45404</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -470,6 +505,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -478,6 +516,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -485,6 +526,9 @@
       </c>
       <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
